--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1611375.998968713</v>
+        <v>-1614235.831203982</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.57494829067508</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>67.76654635344028</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>97.4059908226545</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>17.727471611456</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>6.886629554573173</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
-        <v>1.685016670148924</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724398</v>
+        <v>34.66253762724358</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>88.73562238760053</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.661229936136</v>
+        <v>382.6612299361379</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>16.17423290751992</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075478</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>107.2794737309183</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037941</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>43.32130647461302</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>225.7939473685565</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7.751464303750563</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>101.0628932818818</v>
       </c>
       <c r="U8" t="n">
-        <v>120.3335042504309</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1215,13 +1215,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.6773314608794</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>107.9150599581246</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.96040811099752</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>111.9404544080143</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833434</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336595</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.76895293959724</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605714818</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>75.94597652115704</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>13.37642554686328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>131.5907017407193</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.40247677522967</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>28.23631843387909</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445521</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.8831693494281</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C2" t="n">
-        <v>210.8831693494281</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D2" t="n">
-        <v>210.8831693494281</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E2" t="n">
-        <v>210.8831693494281</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F2" t="n">
-        <v>203.9376686002246</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>681.6512917426136</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659128</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659128</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659128</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659128</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659128</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494281</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.7662791370939</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C3" t="n">
-        <v>327.3132498559669</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>327.3132498559669</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>168.0757948505114</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>168.0757948505114</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264277</v>
+        <v>732.1958116840118</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264277</v>
+        <v>542.7760266675268</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264277</v>
+        <v>353.3562416510418</v>
       </c>
       <c r="V3" t="n">
-        <v>669.9816161571619</v>
+        <v>353.3562416510418</v>
       </c>
       <c r="W3" t="n">
-        <v>669.9816161571619</v>
+        <v>353.3562416510418</v>
       </c>
       <c r="X3" t="n">
-        <v>669.9816161571619</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="Y3" t="n">
-        <v>669.9816161571619</v>
+        <v>163.9364566345569</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.80845971485007</v>
+        <v>408.3721212810462</v>
       </c>
       <c r="C5" t="n">
-        <v>51.80845971485007</v>
+        <v>408.3721212810462</v>
       </c>
       <c r="D5" t="n">
-        <v>51.80845971485007</v>
+        <v>50.10642267429576</v>
       </c>
       <c r="E5" t="n">
-        <v>51.80845971485007</v>
+        <v>50.10642267429576</v>
       </c>
       <c r="F5" t="n">
-        <v>44.8629589656466</v>
+        <v>43.16092192509228</v>
       </c>
       <c r="G5" t="n">
-        <v>32.31493543544535</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489088</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489088</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121382</v>
+        <v>93.38580827121427</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235817</v>
+        <v>238.204646223583</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190594</v>
+        <v>454.7669823190617</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643019</v>
+        <v>727.4037457643052</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453882</v>
+        <v>1009.065865453886</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831922</v>
+        <v>1261.696156831928</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855763</v>
+        <v>1442.80926485577</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744544</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.632255474601</v>
+        <v>1495.632255474609</v>
       </c>
       <c r="S5" t="n">
-        <v>1495.632255474601</v>
+        <v>1350.796251643678</v>
       </c>
       <c r="T5" t="n">
-        <v>1495.632255474601</v>
+        <v>1138.182312891103</v>
       </c>
       <c r="U5" t="n">
-        <v>1495.632255474601</v>
+        <v>884.5305579716912</v>
       </c>
       <c r="V5" t="n">
-        <v>1164.56936813103</v>
+        <v>794.8986161660341</v>
       </c>
       <c r="W5" t="n">
-        <v>811.8007128609158</v>
+        <v>794.8986161660341</v>
       </c>
       <c r="X5" t="n">
-        <v>438.334954599836</v>
+        <v>794.8986161660341</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.80845971485007</v>
+        <v>408.3721212810462</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758.1079507105416</v>
+        <v>221.4035366735129</v>
       </c>
       <c r="C6" t="n">
-        <v>583.6549214294146</v>
+        <v>46.9505073923859</v>
       </c>
       <c r="D6" t="n">
-        <v>434.7205117681632</v>
+        <v>46.9505073923859</v>
       </c>
       <c r="E6" t="n">
-        <v>275.4830567627077</v>
+        <v>46.9505073923859</v>
       </c>
       <c r="F6" t="n">
-        <v>128.9484987895927</v>
+        <v>46.9505073923859</v>
       </c>
       <c r="G6" t="n">
-        <v>128.9484987895927</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489088</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489088</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275206</v>
+        <v>49.18216652275255</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477029</v>
+        <v>159.0748281477039</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543684</v>
+        <v>353.1616144543701</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642187</v>
+        <v>599.0086077642213</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621682</v>
+        <v>865.7710843621717</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970537</v>
+        <v>1087.586838970542</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.28047142284</v>
+        <v>1246.280471422845</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680477</v>
+        <v>1302.443765680483</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680477</v>
+        <v>1251.938857051812</v>
       </c>
       <c r="S6" t="n">
-        <v>1302.443765680477</v>
+        <v>1107.434782966759</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.443765680477</v>
+        <v>911.5224021523658</v>
       </c>
       <c r="U6" t="n">
-        <v>1074.32255569478</v>
+        <v>683.4011921666685</v>
       </c>
       <c r="V6" t="n">
-        <v>1074.32255569478</v>
+        <v>683.4011921666685</v>
       </c>
       <c r="W6" t="n">
-        <v>1074.32255569478</v>
+        <v>429.1638354384668</v>
       </c>
       <c r="X6" t="n">
-        <v>866.471055489247</v>
+        <v>429.1638354384668</v>
       </c>
       <c r="Y6" t="n">
-        <v>758.1079507105416</v>
+        <v>221.4035366735129</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="C7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="D7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="E7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="F7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="G7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="H7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="I7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489088</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713157</v>
+        <v>51.49054881713204</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363466</v>
+        <v>108.1125511363475</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055957</v>
+        <v>171.0707966055971</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221319</v>
+        <v>240.3895616221336</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645202</v>
+        <v>284.1035717645224</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354638</v>
+        <v>302.4464881354663</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354638</v>
+        <v>258.6875927065643</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354638</v>
+        <v>258.6875927065643</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354638</v>
+        <v>258.6875927065643</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354638</v>
+        <v>258.6875927065643</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354638</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354638</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="W7" t="n">
-        <v>294.6167262124834</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="X7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.62717531446604</v>
+        <v>30.61289839489104</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.573958131052</v>
+        <v>431.2678554838969</v>
       </c>
       <c r="C8" t="n">
-        <v>824.6114411906399</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838894</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.776177450434</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.713290106863</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.713290106863</v>
+        <v>1581.47278578491</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.713290106863</v>
+        <v>1208.00702752383</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.573958131052</v>
+        <v>817.8676955480187</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>661.0216980221687</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5686687410417</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D9" t="n">
-        <v>337.6342590797905</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E9" t="n">
-        <v>178.396804074335</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972668</v>
+        <v>1625.233187903851</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972668</v>
+        <v>1430.522866377827</v>
       </c>
       <c r="U9" t="n">
-        <v>1734.238298972668</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="V9" t="n">
-        <v>1499.086190740925</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="W9" t="n">
-        <v>1244.848834012724</v>
+        <v>948.1839197828899</v>
       </c>
       <c r="X9" t="n">
-        <v>1036.997333807191</v>
+        <v>740.3324195773571</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.2370350422368</v>
+        <v>532.5721208124032</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235361</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>388.3019303235361</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>388.3019303235361</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U10" t="n">
-        <v>388.3019303235361</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="V10" t="n">
-        <v>388.3019303235361</v>
+        <v>156.4403626067944</v>
       </c>
       <c r="W10" t="n">
-        <v>98.8847602865755</v>
+        <v>156.4403626067944</v>
       </c>
       <c r="X10" t="n">
-        <v>98.8847602865755</v>
+        <v>156.4403626067944</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.8847602865755</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782944</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003833</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797731</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,16 +5437,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003833</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279801</v>
@@ -5455,31 +5455,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2187.395141638036</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1898.319914982233</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>598.4481918884546</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>450.5350983060615</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,13 +6245,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,10 +6260,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7552,13 +7552,13 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,19 +7597,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
@@ -7807,22 +7807,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>351.5228849393829</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>91.00926683661282</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>164.1119581120469</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.5498640939345</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.8157004124976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124975</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>141.4594738061312</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>13.83034628221196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.97276993489202</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>117.1847295890522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.988543122513853e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118476.4986260252</v>
+        <v>118476.4986260253</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26320,22 +26320,22 @@
         <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
+        <v>141250.654945751</v>
+      </c>
+      <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
-      <c r="H2" t="n">
-        <v>141250.654945751</v>
-      </c>
       <c r="I2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
         <v>141250.6549457511</v>
@@ -26344,10 +26344,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996475</v>
+        <v>216004.0468996494</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960657</v>
+        <v>167084.5112960625</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838203</v>
+        <v>50221.67010838254</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064688</v>
+        <v>59784.02116064605</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468125</v>
+        <v>221112.0537468119</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186735</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496084</v>
       </c>
-      <c r="N4" t="n">
-        <v>22817.55530496086</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790083</v>
+        <v>72511.97598790099</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726193.357203426</v>
+        <v>-726553.4402191436</v>
       </c>
       <c r="C6" t="n">
-        <v>-365945.7669081113</v>
+        <v>-365945.7669081127</v>
       </c>
       <c r="D6" t="n">
-        <v>-282804.2735145857</v>
+        <v>-282804.2735145827</v>
       </c>
       <c r="E6" t="n">
-        <v>-576141.7784942874</v>
+        <v>-576176.5164197241</v>
       </c>
       <c r="F6" t="n">
-        <v>25301.42907997666</v>
+        <v>25266.69115454094</v>
       </c>
       <c r="G6" t="n">
-        <v>25301.42907997667</v>
+        <v>25266.69115454088</v>
       </c>
       <c r="H6" t="n">
-        <v>25301.42907997657</v>
+        <v>25266.69115454098</v>
       </c>
       <c r="I6" t="n">
-        <v>25301.42907997654</v>
+        <v>25266.69115454097</v>
       </c>
       <c r="J6" t="n">
-        <v>-23763.51564856805</v>
+        <v>-23798.25357400367</v>
       </c>
       <c r="K6" t="n">
-        <v>-24920.24102840549</v>
+        <v>-24954.97895384159</v>
       </c>
       <c r="L6" t="n">
-        <v>-42083.38259327351</v>
+        <v>-42083.38259327268</v>
       </c>
       <c r="M6" t="n">
-        <v>-139445.7419842243</v>
+        <v>-139445.7419842246</v>
       </c>
       <c r="N6" t="n">
-        <v>17700.6385673734</v>
+        <v>17700.63856737339</v>
       </c>
       <c r="O6" t="n">
-        <v>17700.63856737342</v>
+        <v>17700.63856737343</v>
       </c>
       <c r="P6" t="n">
-        <v>17700.6385673734</v>
+        <v>17700.63856737339</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836594</v>
+        <v>716.448312283661</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.661229936136</v>
+        <v>382.6612299361379</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707549</v>
+        <v>167.9783713707562</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540257</v>
+        <v>137.2623522540231</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698161</v>
+        <v>195.1356427698178</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900284</v>
+        <v>159.4537267900253</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698161</v>
+        <v>195.1356427698181</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900284</v>
+        <v>159.4537267900253</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698161</v>
+        <v>195.1356427698178</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900284</v>
+        <v>159.4537267900253</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>116.0378902335523</v>
       </c>
       <c r="U2" t="n">
-        <v>87.05730245298341</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>132.0427730794936</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681112</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
-        <v>225.9139575948521</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>4.854053373819745</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2929963876282</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476456</v>
+        <v>99.43720189476431</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926216</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4877993650491</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>239.0166360825344</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719917576</v>
+        <v>3.576708719915644</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>119.6282444896466</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075475</v>
       </c>
       <c r="I6" t="n">
-        <v>46.4646512129554</v>
+        <v>46.46465121295528</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238389</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.059033344203</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.40322204638602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037444</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.65413415037921</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461327</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106944</v>
+        <v>119.2023528106943</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443858</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>60.45461166213602</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>278.7715340328405</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>107.0093645877221</v>
       </c>
       <c r="U8" t="n">
-        <v>130.7375884436849</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>11.39188093250448</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>29.6599539351746</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>93.57940325024768</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28068,16 +28068,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>106.6441989440805</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235815</v>
+        <v>2.880194220235821</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799005</v>
+        <v>29.49678905799011</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756414</v>
+        <v>111.0386876756416</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997397</v>
+        <v>244.4528841997403</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423218</v>
+        <v>366.3715055423226</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098637</v>
+        <v>454.5162494098647</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739824</v>
+        <v>505.7369033739835</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022274</v>
+        <v>513.9202552022285</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247575</v>
+        <v>485.2803239247586</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126858</v>
+        <v>414.1755291126867</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004906</v>
+        <v>311.0285736004913</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868881</v>
+        <v>180.9230001868885</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6324257936237</v>
+        <v>65.63242579362384</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908229</v>
+        <v>12.60805019908231</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188651</v>
+        <v>0.2304155376188656</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044098</v>
+        <v>1.541039766044101</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574168</v>
+        <v>14.88319984574172</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0577287870446</v>
+        <v>53.05772878704472</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594558</v>
+        <v>145.5944631594561</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844103</v>
+        <v>248.8441274844108</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754959</v>
+        <v>334.6016386754966</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945944</v>
+        <v>390.4643301945952</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519691</v>
+        <v>400.79875915197</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306762</v>
+        <v>366.652562230677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058509997</v>
+        <v>294.2710058510004</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462606</v>
+        <v>196.7123743462611</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158006</v>
+        <v>95.67964442158028</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963487</v>
+        <v>28.62413775963493</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572479</v>
+        <v>6.211471688572493</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344802</v>
+        <v>0.1013841951344804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970533</v>
+        <v>1.291955972970536</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513802</v>
+        <v>11.48666310513805</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351387</v>
+        <v>38.85263962351395</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901671</v>
+        <v>91.3412872890169</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505765</v>
+        <v>150.1017939505768</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178191</v>
+        <v>192.0786180178196</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902809</v>
+        <v>202.5199712902814</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273909</v>
+        <v>197.7044990273914</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522351</v>
+        <v>182.6121042522355</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036361</v>
+        <v>156.2562024036364</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548326</v>
+        <v>108.1836951548328</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647506</v>
+        <v>58.09103856647518</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258647</v>
+        <v>22.51526909258652</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874095</v>
+        <v>5.520175520874107</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839281</v>
+        <v>0.07047032579839296</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305343</v>
+        <v>63.40697967305397</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973413</v>
+        <v>146.2816544973421</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398765</v>
+        <v>218.7498344398775</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467097</v>
+        <v>275.3906701467107</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056365</v>
+        <v>284.5071916056376</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030708</v>
+        <v>255.1821125030719</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574162</v>
+        <v>182.9425333574171</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604109</v>
+        <v>88.72288372604177</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278906</v>
+        <v>18.7568364927894</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100513</v>
+        <v>111.0026885100519</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956217</v>
+        <v>196.0472588956225</v>
       </c>
       <c r="M6" t="n">
-        <v>248.330296272576</v>
+        <v>248.3302962725769</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686358</v>
+        <v>269.4570470686367</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862317</v>
+        <v>224.0563177862326</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366695</v>
+        <v>160.2965984366701</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023913</v>
+        <v>56.73060026023956</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.0885357800411</v>
+        <v>21.08853578004141</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658085</v>
+        <v>57.19394173658128</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267587</v>
+        <v>63.59418734267632</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215775</v>
+        <v>70.01895456215817</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039228</v>
+        <v>44.15556580039271</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448847</v>
+        <v>18.52819835448881</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295204</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096336</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
